--- a/Project748_S. P. Davis(2012).xlsx
+++ b/Project748_S. P. Davis(2012).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E7E949-C261-594B-831E-43A887F68678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D1E236-3878-D24D-AB7A-83A369BDFE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{54A7022C-B6BA-6346-BDDB-51035BE98994}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="145">
   <si>
-    <t>[1] 'Tessellate prismatic calcified cartilage'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [2] 'Perichondral bone'</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] 'Tessellate prismatic calcified cartilage'</t>
   </si>
 </sst>
 </file>
@@ -527,14 +527,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +562,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>807833</xdr:colOff>
+      <xdr:colOff>807832</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>168690</xdr:rowOff>
     </xdr:to>
@@ -920,1543 +919,1543 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E0BCB-9399-6D4B-B1E0-0DA5F080FF91}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
     <col min="2" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>144</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>142</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>144</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>144</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>142</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>142</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>142</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>142</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>142</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>142</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>144</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>142</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>142</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>144</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>142</v>
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>144</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>144</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>142</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>142</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>142</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>144</v>
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>142</v>
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>142</v>
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>142</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>142</v>
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>144</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>142</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>142</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>142</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>142</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>142</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>142</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>142</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>144</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>144</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>142</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>142</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>144</v>
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>142</v>
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>142</v>
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>142</v>
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>142</v>
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>142</v>
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>142</v>
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>142</v>
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>144</v>
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>142</v>
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>144</v>
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>142</v>
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>142</v>
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>144</v>
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>142</v>
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>142</v>
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>144</v>
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>144</v>
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>142</v>
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>142</v>
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>142</v>
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>142</v>
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>142</v>
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>144</v>
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>142</v>
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>142</v>
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>144</v>
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>142</v>
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>142</v>
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>142</v>
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>144</v>
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>142</v>
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>142</v>
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>142</v>
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>142</v>
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>144</v>
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>142</v>
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>142</v>
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>142</v>
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>142</v>
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>142</v>
+        <v>108</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>144</v>
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>144</v>
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>142</v>
+        <v>114</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>142</v>
+        <v>115</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>142</v>
+        <v>119</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>142</v>
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
